--- a/results_final/ei_HH.xlsx
+++ b/results_final/ei_HH.xlsx
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560826639597812</v>
+        <v>1.560826639597811</v>
       </c>
       <c r="C3">
         <v>1.242580578481868</v>
@@ -620,88 +620,88 @@
         <v>1.035381677566721</v>
       </c>
       <c r="E3">
-        <v>0.8947901743815287</v>
+        <v>0.8947901743815291</v>
       </c>
       <c r="F3">
-        <v>0.7961919668155252</v>
+        <v>0.7961919668155257</v>
       </c>
       <c r="G3">
-        <v>0.7251954313353394</v>
+        <v>0.7251954313353399</v>
       </c>
       <c r="H3">
-        <v>0.6729842086800086</v>
+        <v>0.6729842086800092</v>
       </c>
       <c r="I3">
-        <v>0.6339349929130973</v>
+        <v>0.6339349929130979</v>
       </c>
       <c r="J3">
-        <v>0.6043334127981946</v>
+        <v>0.6043334127981952</v>
       </c>
       <c r="K3">
-        <v>0.5816505076086816</v>
+        <v>0.5816505076086822</v>
       </c>
       <c r="L3">
-        <v>0.5641187246693542</v>
+        <v>0.5641187246693548</v>
       </c>
       <c r="M3">
-        <v>0.5504745417274325</v>
+        <v>0.550474541727433</v>
       </c>
       <c r="N3">
-        <v>0.5397971871169136</v>
+        <v>0.5397971871169142</v>
       </c>
       <c r="O3">
-        <v>0.5314046128146752</v>
+        <v>0.5314046128146758</v>
       </c>
       <c r="P3">
-        <v>0.5247846002324948</v>
+        <v>0.5247846002324954</v>
       </c>
       <c r="Q3">
-        <v>0.5195480175619107</v>
+        <v>0.5195480175619113</v>
       </c>
       <c r="R3">
-        <v>0.5153963990018072</v>
+        <v>0.5153963990018078</v>
       </c>
       <c r="S3">
-        <v>0.5120990028135151</v>
+        <v>0.5120990028135156</v>
       </c>
       <c r="T3">
-        <v>0.5094762815006192</v>
+        <v>0.5094762815006197</v>
       </c>
       <c r="U3">
-        <v>0.5073877790129917</v>
+        <v>0.5073877790129923</v>
       </c>
       <c r="V3">
-        <v>0.505723142935101</v>
+        <v>0.5057231429351016</v>
       </c>
       <c r="W3">
-        <v>0.5043953670929412</v>
+        <v>0.5043953670929417</v>
       </c>
       <c r="X3">
-        <v>0.5033356568327201</v>
+        <v>0.5033356568327206</v>
       </c>
       <c r="Y3">
-        <v>0.5024894918571938</v>
+        <v>0.5024894918571944</v>
       </c>
       <c r="Z3">
-        <v>0.5018135841918947</v>
+        <v>0.5018135841918953</v>
       </c>
       <c r="AA3">
-        <v>0.5012735127247937</v>
+        <v>0.5012735127247943</v>
       </c>
       <c r="AB3">
-        <v>0.5008418740783427</v>
+        <v>0.5008418740783432</v>
       </c>
       <c r="AC3">
-        <v>0.5004968307841111</v>
+        <v>0.5004968307841117</v>
       </c>
       <c r="AD3">
-        <v>0.5002209673074332</v>
+        <v>0.5002209673074337</v>
       </c>
       <c r="AE3">
-        <v>0.5000003860062792</v>
+        <v>0.5000003860062797</v>
       </c>
       <c r="AF3">
-        <v>0.4998239910012636</v>
+        <v>0.4998239910012642</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.078760376804843</v>
+        <v>3.078760376804844</v>
       </c>
       <c r="C6">
         <v>1.815660816821453</v>
       </c>
       <c r="D6">
-        <v>1.19004062526131</v>
+        <v>1.190040625261309</v>
       </c>
       <c r="E6">
-        <v>0.8487571393521518</v>
+        <v>0.8487571393521511</v>
       </c>
       <c r="F6">
-        <v>0.6476804119662833</v>
+        <v>0.6476804119662828</v>
       </c>
       <c r="G6">
-        <v>0.5217021429003805</v>
+        <v>0.5217021429003801</v>
       </c>
       <c r="H6">
-        <v>0.4388055449614806</v>
+        <v>0.4388055449614802</v>
       </c>
       <c r="I6">
-        <v>0.3820777045233113</v>
+        <v>0.3820777045233109</v>
       </c>
       <c r="J6">
-        <v>0.3420230434321898</v>
+        <v>0.3420230434321894</v>
       </c>
       <c r="K6">
-        <v>0.3130244809960928</v>
+        <v>0.3130244809960924</v>
       </c>
       <c r="L6">
-        <v>0.2916061329997278</v>
+        <v>0.2916061329997274</v>
       </c>
       <c r="M6">
-        <v>0.2755315487747894</v>
+        <v>0.275531548774789</v>
       </c>
       <c r="N6">
-        <v>0.2633122578854183</v>
+        <v>0.263312257885418</v>
       </c>
       <c r="O6">
-        <v>0.253928163746537</v>
+        <v>0.2539281637465367</v>
       </c>
       <c r="P6">
-        <v>0.2466622610159813</v>
+        <v>0.246662261015981</v>
       </c>
       <c r="Q6">
-        <v>0.2409995196238663</v>
+        <v>0.240999519623866</v>
       </c>
       <c r="R6">
-        <v>0.2365630723581337</v>
+        <v>0.2365630723581334</v>
       </c>
       <c r="S6">
-        <v>0.2330727884156589</v>
+        <v>0.2330727884156586</v>
       </c>
       <c r="T6">
-        <v>0.2303176751050249</v>
+        <v>0.2303176751050246</v>
       </c>
       <c r="U6">
-        <v>0.2281370517598362</v>
+        <v>0.2281370517598359</v>
       </c>
       <c r="V6">
-        <v>0.2264074275489342</v>
+        <v>0.2264074275489339</v>
       </c>
       <c r="W6">
-        <v>0.2250331744454501</v>
+        <v>0.2250331744454498</v>
       </c>
       <c r="X6">
-        <v>0.2239397802584335</v>
+        <v>0.2239397802584332</v>
       </c>
       <c r="Y6">
-        <v>0.2230688912203887</v>
+        <v>0.2230688912203884</v>
       </c>
       <c r="Z6">
-        <v>0.2223746191461388</v>
+        <v>0.2223746191461385</v>
       </c>
       <c r="AA6">
-        <v>0.2218207576066827</v>
+        <v>0.2218207576066824</v>
       </c>
       <c r="AB6">
-        <v>0.2213786617698584</v>
+        <v>0.2213786617698581</v>
       </c>
       <c r="AC6">
-        <v>0.2210256195847242</v>
+        <v>0.2210256195847239</v>
       </c>
       <c r="AD6">
-        <v>0.220743591248184</v>
+        <v>0.2207435912481837</v>
       </c>
       <c r="AE6">
-        <v>0.2205182277057496</v>
+        <v>0.2205182277057492</v>
       </c>
       <c r="AF6">
-        <v>0.2203381025408135</v>
+        <v>0.2203381025408132</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.127814202433855</v>
+        <v>2.127814202433856</v>
       </c>
       <c r="C9">
         <v>1.564657177444222</v>
@@ -1211,25 +1211,25 @@
         <v>1.004982055086425</v>
       </c>
       <c r="F9">
-        <v>0.858615807305801</v>
+        <v>0.8586158073058011</v>
       </c>
       <c r="G9">
-        <v>0.7570269450826629</v>
+        <v>0.757026945082663</v>
       </c>
       <c r="H9">
-        <v>0.6844808531494364</v>
+        <v>0.6844808531494365</v>
       </c>
       <c r="I9">
-        <v>0.6314824385329616</v>
+        <v>0.6314824385329617</v>
       </c>
       <c r="J9">
-        <v>0.5920539131445606</v>
+        <v>0.5920539131445607</v>
       </c>
       <c r="K9">
-        <v>0.562291137835908</v>
+        <v>0.5622911378359081</v>
       </c>
       <c r="L9">
-        <v>0.5395618374796122</v>
+        <v>0.5395618374796123</v>
       </c>
       <c r="M9">
         <v>0.5220417225313718</v>
@@ -1297,97 +1297,97 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.411902709128922</v>
+        <v>1.411902709128921</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456792</v>
+        <v>0.9678782929456793</v>
       </c>
       <c r="D10">
-        <v>0.7155393670812377</v>
+        <v>0.715539367081238</v>
       </c>
       <c r="E10">
-        <v>0.5619319926189331</v>
+        <v>0.5619319926189336</v>
       </c>
       <c r="F10">
-        <v>0.463152422004889</v>
+        <v>0.4631524220048895</v>
       </c>
       <c r="G10">
-        <v>0.3967857659995482</v>
+        <v>0.3967857659995486</v>
       </c>
       <c r="H10">
-        <v>0.3506079827101896</v>
+        <v>0.3506079827101901</v>
       </c>
       <c r="I10">
-        <v>0.317566273333202</v>
+        <v>0.3175662733332025</v>
       </c>
       <c r="J10">
-        <v>0.2933894079127448</v>
+        <v>0.2933894079127453</v>
       </c>
       <c r="K10">
-        <v>0.2753800517135243</v>
+        <v>0.2753800517135248</v>
       </c>
       <c r="L10">
-        <v>0.2617718331641981</v>
+        <v>0.2617718331641985</v>
       </c>
       <c r="M10">
-        <v>0.2513710528038664</v>
+        <v>0.2513710528038669</v>
       </c>
       <c r="N10">
-        <v>0.2433487635092202</v>
+        <v>0.2433487635092206</v>
       </c>
       <c r="O10">
-        <v>0.2371156656557306</v>
+        <v>0.237115665655731</v>
       </c>
       <c r="P10">
-        <v>0.2322443357869445</v>
+        <v>0.232244335786945</v>
       </c>
       <c r="Q10">
-        <v>0.2284194267252449</v>
+        <v>0.2284194267252454</v>
       </c>
       <c r="R10">
-        <v>0.2254049049838809</v>
+        <v>0.2254049049838814</v>
       </c>
       <c r="S10">
-        <v>0.2230219570666795</v>
+        <v>0.22302195706668</v>
       </c>
       <c r="T10">
-        <v>0.2211337499264783</v>
+        <v>0.2211337499264788</v>
       </c>
       <c r="U10">
-        <v>0.2196347009614058</v>
+        <v>0.2196347009614063</v>
       </c>
       <c r="V10">
-        <v>0.218442781699147</v>
+        <v>0.2184427816991475</v>
       </c>
       <c r="W10">
-        <v>0.2174939051805206</v>
+        <v>0.2174939051805211</v>
       </c>
       <c r="X10">
-        <v>0.2167377724865103</v>
+        <v>0.2167377724865108</v>
       </c>
       <c r="Y10">
-        <v>0.2161347594689362</v>
+        <v>0.2161347594689367</v>
       </c>
       <c r="Z10">
-        <v>0.215653557235537</v>
+        <v>0.2156535572355375</v>
       </c>
       <c r="AA10">
-        <v>0.2152693669341031</v>
+        <v>0.2152693669341036</v>
       </c>
       <c r="AB10">
-        <v>0.2149625075492072</v>
+        <v>0.2149625075492077</v>
       </c>
       <c r="AC10">
-        <v>0.2147173350121462</v>
+        <v>0.2147173350121467</v>
       </c>
       <c r="AD10">
-        <v>0.2145213983300946</v>
+        <v>0.2145213983300951</v>
       </c>
       <c r="AE10">
-        <v>0.2143647777273612</v>
+        <v>0.2143647777273617</v>
       </c>
       <c r="AF10">
-        <v>0.2142395635794752</v>
+        <v>0.2142395635794757</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1416,76 +1416,76 @@
         <v>1.047611281602314</v>
       </c>
       <c r="I11">
-        <v>1.020876575302835</v>
+        <v>1.020876575302834</v>
       </c>
       <c r="J11">
-        <v>0.9999808805242922</v>
+        <v>0.9999808805242916</v>
       </c>
       <c r="K11">
-        <v>0.9835726923244918</v>
+        <v>0.9835726923244912</v>
       </c>
       <c r="L11">
-        <v>0.9706402031938729</v>
+        <v>0.9706402031938723</v>
       </c>
       <c r="M11">
-        <v>0.9604167503182945</v>
+        <v>0.960416750318294</v>
       </c>
       <c r="N11">
-        <v>0.9523155725655754</v>
+        <v>0.9523155725655749</v>
       </c>
       <c r="O11">
-        <v>0.9458838585530271</v>
+        <v>0.9458838585530266</v>
       </c>
       <c r="P11">
-        <v>0.9407697770110077</v>
+        <v>0.9407697770110072</v>
       </c>
       <c r="Q11">
-        <v>0.9366984270724088</v>
+        <v>0.9366984270724082</v>
       </c>
       <c r="R11">
-        <v>0.9334540368242492</v>
+        <v>0.9334540368242487</v>
       </c>
       <c r="S11">
-        <v>0.9308666174340707</v>
+        <v>0.9308666174340702</v>
       </c>
       <c r="T11">
-        <v>0.9288018467221638</v>
+        <v>0.9288018467221633</v>
       </c>
       <c r="U11">
-        <v>0.9271533281701857</v>
+        <v>0.9271533281701851</v>
       </c>
       <c r="V11">
-        <v>0.9258366202508881</v>
+        <v>0.9258366202508875</v>
       </c>
       <c r="W11">
-        <v>0.9247846003987257</v>
+        <v>0.9247846003987251</v>
       </c>
       <c r="X11">
-        <v>0.9239438452707412</v>
+        <v>0.9239438452707407</v>
       </c>
       <c r="Y11">
-        <v>0.9232717915415631</v>
+        <v>0.9232717915415626</v>
       </c>
       <c r="Z11">
-        <v>0.9227345005365891</v>
+        <v>0.9227345005365886</v>
       </c>
       <c r="AA11">
-        <v>0.9223048928654868</v>
+        <v>0.9223048928654862</v>
       </c>
       <c r="AB11">
-        <v>0.9219613507454438</v>
+        <v>0.9219613507454433</v>
       </c>
       <c r="AC11">
-        <v>0.9216866091852819</v>
+        <v>0.9216866091852813</v>
       </c>
       <c r="AD11">
-        <v>0.9214668748862457</v>
+        <v>0.9214668748862451</v>
       </c>
       <c r="AE11">
-        <v>0.9212911251652921</v>
+        <v>0.9212911251652915</v>
       </c>
       <c r="AF11">
-        <v>0.9211505495235445</v>
+        <v>0.9211505495235439</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,7 +1496,7 @@
         <v>2.434219760368954</v>
       </c>
       <c r="C12">
-        <v>2.071510060701155</v>
+        <v>2.071510060701156</v>
       </c>
       <c r="D12">
         <v>1.820660027932638</v>
@@ -1508,7 +1508,7 @@
         <v>1.511837330532378</v>
       </c>
       <c r="G12">
-        <v>1.415152594240686</v>
+        <v>1.415152594240687</v>
       </c>
       <c r="H12">
         <v>1.34227603846056</v>
@@ -1517,7 +1517,7 @@
         <v>1.286686338982408</v>
       </c>
       <c r="J12">
-        <v>1.243876812266487</v>
+        <v>1.243876812266488</v>
       </c>
       <c r="K12">
         <v>1.210657000393799</v>
@@ -1529,7 +1529,7 @@
         <v>1.164372959777042</v>
       </c>
       <c r="N12">
-        <v>1.148346388804703</v>
+        <v>1.148346388804704</v>
       </c>
       <c r="O12">
         <v>1.135684104375612</v>
@@ -1565,7 +1565,7 @@
         <v>1.091601898099444</v>
       </c>
       <c r="Z12">
-        <v>1.090562715301091</v>
+        <v>1.090562715301092</v>
       </c>
       <c r="AA12">
         <v>1.089732081389862</v>
@@ -1580,7 +1580,7 @@
         <v>1.088112506337031</v>
       </c>
       <c r="AE12">
-        <v>1.087772966733401</v>
+        <v>1.087772966733402</v>
       </c>
       <c r="AF12">
         <v>1.087501411337158</v>
@@ -1597,91 +1597,91 @@
         <v>1.335384803242597</v>
       </c>
       <c r="D13">
-        <v>1.368861692714458</v>
+        <v>1.368861692714459</v>
       </c>
       <c r="E13">
         <v>1.396246451388214</v>
       </c>
       <c r="F13">
-        <v>1.418548184292692</v>
+        <v>1.418548184292693</v>
       </c>
       <c r="G13">
-        <v>1.436645775341871</v>
+        <v>1.436645775341872</v>
       </c>
       <c r="H13">
-        <v>1.451289945192414</v>
+        <v>1.451289945192415</v>
       </c>
       <c r="I13">
-        <v>1.463112684461402</v>
+        <v>1.463112684461403</v>
       </c>
       <c r="J13">
-        <v>1.472640183208968</v>
+        <v>1.472640183208969</v>
       </c>
       <c r="K13">
-        <v>1.48030683249993</v>
+        <v>1.480306832499931</v>
       </c>
       <c r="L13">
-        <v>1.486468879345943</v>
+        <v>1.486468879345944</v>
       </c>
       <c r="M13">
-        <v>1.491416980166511</v>
+        <v>1.491416980166512</v>
       </c>
       <c r="N13">
-        <v>1.495387317349107</v>
+        <v>1.495387317349108</v>
       </c>
       <c r="O13">
-        <v>1.498571195807666</v>
+        <v>1.498571195807668</v>
       </c>
       <c r="P13">
-        <v>1.501123178690622</v>
+        <v>1.501123178690623</v>
       </c>
       <c r="Q13">
-        <v>1.503167893678435</v>
+        <v>1.503167893678436</v>
       </c>
       <c r="R13">
-        <v>1.504805670797615</v>
+        <v>1.504805670797617</v>
       </c>
       <c r="S13">
-        <v>1.506117177196934</v>
+        <v>1.506117177196936</v>
       </c>
       <c r="T13">
-        <v>1.507167205255452</v>
+        <v>1.507167205255453</v>
       </c>
       <c r="U13">
-        <v>1.508007754756567</v>
+        <v>1.508007754756568</v>
       </c>
       <c r="V13">
-        <v>1.508680531863465</v>
+        <v>1.508680531863466</v>
       </c>
       <c r="W13">
-        <v>1.509218969650799</v>
+        <v>1.5092189696508</v>
       </c>
       <c r="X13">
-        <v>1.509649858236011</v>
+        <v>1.509649858236012</v>
       </c>
       <c r="Y13">
-        <v>1.509994657677302</v>
+        <v>1.509994657677303</v>
       </c>
       <c r="Z13">
-        <v>1.510270553930296</v>
+        <v>1.510270553930298</v>
       </c>
       <c r="AA13">
-        <v>1.510491307227408</v>
+        <v>1.510491307227409</v>
       </c>
       <c r="AB13">
-        <v>1.510667933097166</v>
+        <v>1.510667933097168</v>
       </c>
       <c r="AC13">
-        <v>1.510809248663266</v>
+        <v>1.510809248663267</v>
       </c>
       <c r="AD13">
-        <v>1.510922310634038</v>
+        <v>1.510922310634039</v>
       </c>
       <c r="AE13">
-        <v>1.51101276630257</v>
+        <v>1.511012766302571</v>
       </c>
       <c r="AF13">
-        <v>1.511085134736458</v>
+        <v>1.51108513473646</v>
       </c>
     </row>
   </sheetData>
